--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb2-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H2">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I2">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J2">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>5.54901875760126</v>
+        <v>0.017772</v>
       </c>
       <c r="N2">
-        <v>5.54901875760126</v>
+        <v>0.053316</v>
       </c>
       <c r="O2">
-        <v>0.9139636048412911</v>
+        <v>0.002629212535656932</v>
       </c>
       <c r="P2">
-        <v>0.9139636048412911</v>
+        <v>0.002699072137000843</v>
       </c>
       <c r="Q2">
-        <v>227.4643431695979</v>
+        <v>0.737886437832</v>
       </c>
       <c r="R2">
-        <v>227.4643431695979</v>
+        <v>6.640977940488001</v>
       </c>
       <c r="S2">
-        <v>0.6872755819405644</v>
+        <v>0.001920669803887286</v>
       </c>
       <c r="T2">
-        <v>0.6872755819405644</v>
+        <v>0.002059539489597736</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.9918137072448</v>
+        <v>41.519606</v>
       </c>
       <c r="H3">
-        <v>40.9918137072448</v>
+        <v>124.558818</v>
       </c>
       <c r="I3">
-        <v>0.7519725931098855</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J3">
-        <v>0.7519725931098855</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.522359498828154</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N3">
-        <v>0.522359498828154</v>
+        <v>18.522097</v>
       </c>
       <c r="O3">
-        <v>0.08603639515870888</v>
+        <v>0.9133942834993933</v>
       </c>
       <c r="P3">
-        <v>0.08603639515870888</v>
+        <v>0.9376636644070619</v>
       </c>
       <c r="Q3">
-        <v>21.41246326417345</v>
+        <v>256.3433899112607</v>
       </c>
       <c r="R3">
-        <v>21.41246326417345</v>
+        <v>2307.090509201346</v>
       </c>
       <c r="S3">
-        <v>0.06469701116932111</v>
+        <v>0.6672449623484751</v>
       </c>
       <c r="T3">
-        <v>0.06469701116932111</v>
+        <v>0.7154886000761451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.73919381170976</v>
+        <v>41.519606</v>
       </c>
       <c r="H4">
-        <v>6.73919381170976</v>
+        <v>124.558818</v>
       </c>
       <c r="I4">
-        <v>0.1236268558950303</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J4">
-        <v>0.1236268558950303</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.54901875760126</v>
+        <v>0.03562666666666667</v>
       </c>
       <c r="N4">
-        <v>5.54901875760126</v>
+        <v>0.10688</v>
       </c>
       <c r="O4">
-        <v>0.9139636048412911</v>
+        <v>0.005270654884293887</v>
       </c>
       <c r="P4">
-        <v>0.9139636048412911</v>
+        <v>0.005410699039737605</v>
       </c>
       <c r="Q4">
-        <v>37.39591287228779</v>
+        <v>1.479205163093333</v>
       </c>
       <c r="R4">
-        <v>37.39591287228779</v>
+        <v>13.31284646784</v>
       </c>
       <c r="S4">
-        <v>0.1129904468690167</v>
+        <v>0.003850273625918545</v>
       </c>
       <c r="T4">
-        <v>0.1129904468690167</v>
+        <v>0.004128658951313039</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.73919381170976</v>
+        <v>41.519606</v>
       </c>
       <c r="H5">
-        <v>6.73919381170976</v>
+        <v>124.558818</v>
       </c>
       <c r="I5">
-        <v>0.1236268558950303</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J5">
-        <v>0.1236268558950303</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.522359498828154</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N5">
-        <v>0.522359498828154</v>
+        <v>0.021442</v>
       </c>
       <c r="O5">
-        <v>0.08603639515870888</v>
+        <v>0.001057385685151848</v>
       </c>
       <c r="P5">
-        <v>0.08603639515870888</v>
+        <v>0.001085480995603047</v>
       </c>
       <c r="Q5">
-        <v>3.520281901990507</v>
+        <v>0.2967544639506667</v>
       </c>
       <c r="R5">
-        <v>3.520281901990507</v>
+        <v>2.670790175556</v>
       </c>
       <c r="S5">
-        <v>0.01063640902601359</v>
+        <v>0.0007724323267865405</v>
       </c>
       <c r="T5">
-        <v>0.01063640902601359</v>
+        <v>0.0008282812989713153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.174247061003226</v>
+        <v>41.519606</v>
       </c>
       <c r="H6">
-        <v>0.174247061003226</v>
+        <v>124.558818</v>
       </c>
       <c r="I6">
-        <v>0.003196467842095372</v>
+        <v>0.7305114279806179</v>
       </c>
       <c r="J6">
-        <v>0.003196467842095372</v>
+        <v>0.7630546295388222</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.54901875760126</v>
+        <v>0.52486</v>
       </c>
       <c r="N6">
-        <v>5.54901875760126</v>
+        <v>1.04972</v>
       </c>
       <c r="O6">
-        <v>0.9139636048412911</v>
+        <v>0.07764846339550401</v>
       </c>
       <c r="P6">
-        <v>0.9139636048412911</v>
+        <v>0.05314108342059654</v>
       </c>
       <c r="Q6">
-        <v>0.9669002099637922</v>
+        <v>21.79198040516</v>
       </c>
       <c r="R6">
-        <v>0.9669002099637922</v>
+        <v>130.75188243096</v>
       </c>
       <c r="S6">
-        <v>0.002921455271720749</v>
+        <v>0.05672308987555037</v>
       </c>
       <c r="T6">
-        <v>0.002921455271720749</v>
+        <v>0.04054954972279494</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.174247061003226</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H7">
-        <v>0.174247061003226</v>
+        <v>21.551639</v>
       </c>
       <c r="I7">
-        <v>0.003196467842095372</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J7">
-        <v>0.003196467842095372</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.522359498828154</v>
+        <v>0.017772</v>
       </c>
       <c r="N7">
-        <v>0.522359498828154</v>
+        <v>0.053316</v>
       </c>
       <c r="O7">
-        <v>0.08603639515870888</v>
+        <v>0.002629212535656932</v>
       </c>
       <c r="P7">
-        <v>0.08603639515870888</v>
+        <v>0.002699072137000843</v>
       </c>
       <c r="Q7">
-        <v>0.09101960745792392</v>
+        <v>0.127671909436</v>
       </c>
       <c r="R7">
-        <v>0.09101960745792392</v>
+        <v>1.149047184924</v>
       </c>
       <c r="S7">
-        <v>0.0002750125703746229</v>
+        <v>0.0003323215723802035</v>
       </c>
       <c r="T7">
-        <v>0.0002750125703746229</v>
+        <v>0.0003563493319762769</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -906,57 +906,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.524926738560301</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H8">
-        <v>0.524926738560301</v>
+        <v>21.551639</v>
       </c>
       <c r="I8">
-        <v>0.009629496357662767</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J8">
-        <v>0.009629496357662767</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.54901875760126</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N8">
-        <v>5.54901875760126</v>
+        <v>18.522097</v>
       </c>
       <c r="O8">
-        <v>0.9139636048412911</v>
+        <v>0.9133942834993933</v>
       </c>
       <c r="P8">
-        <v>0.9139636048412911</v>
+        <v>0.9376636644070619</v>
       </c>
       <c r="Q8">
-        <v>2.912828318637563</v>
+        <v>44.3535053407759</v>
       </c>
       <c r="R8">
-        <v>2.912828318637563</v>
+        <v>399.1815480669831</v>
       </c>
       <c r="S8">
-        <v>0.008801009203855546</v>
+        <v>0.1154492534852324</v>
       </c>
       <c r="T8">
-        <v>0.008801009203855546</v>
+        <v>0.1237965506180097</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.524926738560301</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H9">
-        <v>0.524926738560301</v>
+        <v>21.551639</v>
       </c>
       <c r="I9">
-        <v>0.009629496357662767</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J9">
-        <v>0.009629496357662767</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.522359498828154</v>
+        <v>0.03562666666666667</v>
       </c>
       <c r="N9">
-        <v>0.522359498828154</v>
+        <v>0.10688</v>
       </c>
       <c r="O9">
-        <v>0.08603639515870888</v>
+        <v>0.005270654884293887</v>
       </c>
       <c r="P9">
-        <v>0.08603639515870888</v>
+        <v>0.005410699039737605</v>
       </c>
       <c r="Q9">
-        <v>0.2742004680758563</v>
+        <v>0.2559376862577778</v>
       </c>
       <c r="R9">
-        <v>0.2742004680758563</v>
+        <v>2.30343917632</v>
       </c>
       <c r="S9">
-        <v>0.0008284871538072217</v>
+        <v>0.0006661889424562261</v>
       </c>
       <c r="T9">
-        <v>0.0008284871538072217</v>
+        <v>0.0007143562270542516</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.08219597134768</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H10">
-        <v>6.08219597134768</v>
+        <v>21.551639</v>
       </c>
       <c r="I10">
-        <v>0.1115745867953259</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J10">
-        <v>0.1115745867953259</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>5.54901875760126</v>
+        <v>0.007147333333333333</v>
       </c>
       <c r="N10">
-        <v>5.54901875760126</v>
+        <v>0.021442</v>
       </c>
       <c r="O10">
-        <v>0.9139636048412911</v>
+        <v>0.001057385685151848</v>
       </c>
       <c r="P10">
-        <v>0.9139636048412911</v>
+        <v>0.001085480995603047</v>
       </c>
       <c r="Q10">
-        <v>33.75021953241509</v>
+        <v>0.05134558260422222</v>
       </c>
       <c r="R10">
-        <v>33.75021953241509</v>
+        <v>0.462110243438</v>
       </c>
       <c r="S10">
-        <v>0.1019751115561336</v>
+        <v>0.0001336491701361003</v>
       </c>
       <c r="T10">
-        <v>0.1019751115561336</v>
+        <v>0.0001433123710750118</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1092,52 +1092,982 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.08219597134768</v>
+        <v>7.183879666666667</v>
       </c>
       <c r="H11">
-        <v>6.08219597134768</v>
+        <v>21.551639</v>
       </c>
       <c r="I11">
-        <v>0.1115745867953259</v>
+        <v>0.1263958572665066</v>
       </c>
       <c r="J11">
-        <v>0.1115745867953259</v>
+        <v>0.1320266053993819</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.522359498828154</v>
+        <v>0.52486</v>
       </c>
       <c r="N11">
-        <v>0.522359498828154</v>
+        <v>1.04972</v>
       </c>
       <c r="O11">
-        <v>0.08603639515870888</v>
+        <v>0.07764846339550401</v>
       </c>
       <c r="P11">
-        <v>0.08603639515870888</v>
+        <v>0.05314108342059654</v>
       </c>
       <c r="Q11">
-        <v>3.177092839367792</v>
+        <v>3.770531081846667</v>
       </c>
       <c r="R11">
-        <v>3.177092839367792</v>
+        <v>22.62318649108</v>
       </c>
       <c r="S11">
-        <v>0.009599475239192318</v>
+        <v>0.009814444096301689</v>
       </c>
       <c r="T11">
-        <v>0.009599475239192318</v>
+        <v>0.007016036851266737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.229894</v>
+      </c>
+      <c r="H12">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J12">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.017772</v>
+      </c>
+      <c r="N12">
+        <v>0.053316</v>
+      </c>
+      <c r="O12">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P12">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q12">
+        <v>0.004085676167999999</v>
+      </c>
+      <c r="R12">
+        <v>0.036771085512</v>
+      </c>
+      <c r="S12">
+        <v>1.063474600156041E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.140366725593643E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.229894</v>
+      </c>
+      <c r="H13">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J13">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N13">
+        <v>18.522097</v>
+      </c>
+      <c r="O13">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P13">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q13">
+        <v>1.419372989239333</v>
+      </c>
+      <c r="R13">
+        <v>12.774356903154</v>
+      </c>
+      <c r="S13">
+        <v>0.003694534417646938</v>
+      </c>
+      <c r="T13">
+        <v>0.0039616593718617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.229894</v>
+      </c>
+      <c r="H14">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J14">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.10688</v>
+      </c>
+      <c r="O14">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P14">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q14">
+        <v>0.008190356906666665</v>
+      </c>
+      <c r="R14">
+        <v>0.07371321215999999</v>
+      </c>
+      <c r="S14">
+        <v>2.1318959649013E-05</v>
+      </c>
+      <c r="T14">
+        <v>2.286037880400791E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.229894</v>
+      </c>
+      <c r="H15">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J15">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.021442</v>
+      </c>
+      <c r="O15">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P15">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q15">
+        <v>0.001643129049333333</v>
+      </c>
+      <c r="R15">
+        <v>0.014788161444</v>
+      </c>
+      <c r="S15">
+        <v>4.276956706531967E-06</v>
+      </c>
+      <c r="T15">
+        <v>4.586192386934296E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.229894</v>
+      </c>
+      <c r="H16">
+        <v>0.6896819999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.004044840748830231</v>
+      </c>
+      <c r="J16">
+        <v>0.004225032410066655</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.52486</v>
+      </c>
+      <c r="N16">
+        <v>1.04972</v>
+      </c>
+      <c r="O16">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P16">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q16">
+        <v>0.12066216484</v>
+      </c>
+      <c r="R16">
+        <v>0.7239729890399998</v>
+      </c>
+      <c r="S16">
+        <v>0.0003140756688261872</v>
+      </c>
+      <c r="T16">
+        <v>0.0002245227997580762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.893011</v>
+      </c>
+      <c r="I17">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J17">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.017772</v>
+      </c>
+      <c r="N17">
+        <v>0.053316</v>
+      </c>
+      <c r="O17">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P17">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q17">
+        <v>0.011214197164</v>
+      </c>
+      <c r="R17">
+        <v>0.100927774476</v>
+      </c>
+      <c r="S17">
+        <v>2.918981670271209E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.130032037348732E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H18">
+        <v>1.893011</v>
+      </c>
+      <c r="I18">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J18">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N18">
+        <v>18.522097</v>
+      </c>
+      <c r="O18">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P18">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q18">
+        <v>3.895837040451889</v>
+      </c>
+      <c r="R18">
+        <v>35.062533364067</v>
+      </c>
+      <c r="S18">
+        <v>0.01014060725447996</v>
+      </c>
+      <c r="T18">
+        <v>0.01087380092446561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H19">
+        <v>1.893011</v>
+      </c>
+      <c r="I19">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J19">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.10688</v>
+      </c>
+      <c r="O19">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P19">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q19">
+        <v>0.02248055729777778</v>
+      </c>
+      <c r="R19">
+        <v>0.20232501568</v>
+      </c>
+      <c r="S19">
+        <v>5.851541018054371E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.274623455469886E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H20">
+        <v>1.893011</v>
+      </c>
+      <c r="I20">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J20">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.021442</v>
+      </c>
+      <c r="O20">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P20">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q20">
+        <v>0.004509993540222221</v>
+      </c>
+      <c r="R20">
+        <v>0.040589941862</v>
+      </c>
+      <c r="S20">
+        <v>1.173921617787442E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.258799365009219E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6310036666666666</v>
+      </c>
+      <c r="H21">
+        <v>1.893011</v>
+      </c>
+      <c r="I21">
+        <v>0.01110211377241086</v>
+      </c>
+      <c r="J21">
+        <v>0.011596696488545</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.52486</v>
+      </c>
+      <c r="N21">
+        <v>1.04972</v>
+      </c>
+      <c r="O21">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P21">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q21">
+        <v>0.3311885844866667</v>
+      </c>
+      <c r="R21">
+        <v>1.98713150692</v>
+      </c>
+      <c r="S21">
+        <v>0.0008620620748697653</v>
+      </c>
+      <c r="T21">
+        <v>0.0006162610155011086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7.2719705</v>
+      </c>
+      <c r="H22">
+        <v>14.543941</v>
+      </c>
+      <c r="I22">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J22">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.017772</v>
+      </c>
+      <c r="N22">
+        <v>0.053316</v>
+      </c>
+      <c r="O22">
+        <v>0.002629212535656932</v>
+      </c>
+      <c r="P22">
+        <v>0.002699072137000843</v>
+      </c>
+      <c r="Q22">
+        <v>0.129237459726</v>
+      </c>
+      <c r="R22">
+        <v>0.775424758356</v>
+      </c>
+      <c r="S22">
+        <v>0.0003363965966851692</v>
+      </c>
+      <c r="T22">
+        <v>0.0002404793277974072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7.2719705</v>
+      </c>
+      <c r="H23">
+        <v>14.543941</v>
+      </c>
+      <c r="I23">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J23">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>6.174032333333334</v>
+      </c>
+      <c r="N23">
+        <v>18.522097</v>
+      </c>
+      <c r="O23">
+        <v>0.9133942834993933</v>
+      </c>
+      <c r="P23">
+        <v>0.9376636644070619</v>
+      </c>
+      <c r="Q23">
+        <v>44.89738099404617</v>
+      </c>
+      <c r="R23">
+        <v>269.384285964277</v>
+      </c>
+      <c r="S23">
+        <v>0.1168649259935589</v>
+      </c>
+      <c r="T23">
+        <v>0.08354305341657987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7.2719705</v>
+      </c>
+      <c r="H24">
+        <v>14.543941</v>
+      </c>
+      <c r="I24">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J24">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.03562666666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.10688</v>
+      </c>
+      <c r="O24">
+        <v>0.005270654884293887</v>
+      </c>
+      <c r="P24">
+        <v>0.005410699039737605</v>
+      </c>
+      <c r="Q24">
+        <v>0.2590760690133334</v>
+      </c>
+      <c r="R24">
+        <v>1.55445641408</v>
+      </c>
+      <c r="S24">
+        <v>0.0006743579460895583</v>
+      </c>
+      <c r="T24">
+        <v>0.0004820772480116078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7.2719705</v>
+      </c>
+      <c r="H25">
+        <v>14.543941</v>
+      </c>
+      <c r="I25">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J25">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.007147333333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.021442</v>
+      </c>
+      <c r="O25">
+        <v>0.001057385685151848</v>
+      </c>
+      <c r="P25">
+        <v>0.001085480995603047</v>
+      </c>
+      <c r="Q25">
+        <v>0.05197519715366666</v>
+      </c>
+      <c r="R25">
+        <v>0.311851182922</v>
+      </c>
+      <c r="S25">
+        <v>0.0001352880153448008</v>
+      </c>
+      <c r="T25">
+        <v>9.671313951969398E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.2719705</v>
+      </c>
+      <c r="H26">
+        <v>14.543941</v>
+      </c>
+      <c r="I26">
+        <v>0.1279457602316344</v>
+      </c>
+      <c r="J26">
+        <v>0.08909703616318426</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.52486</v>
+      </c>
+      <c r="N26">
+        <v>1.04972</v>
+      </c>
+      <c r="O26">
+        <v>0.07764846339550401</v>
+      </c>
+      <c r="P26">
+        <v>0.05314108342059654</v>
+      </c>
+      <c r="Q26">
+        <v>3.81676643663</v>
+      </c>
+      <c r="R26">
+        <v>15.26706574652</v>
+      </c>
+      <c r="S26">
+        <v>0.009934791679955993</v>
+      </c>
+      <c r="T26">
+        <v>0.004734713031275681</v>
       </c>
     </row>
   </sheetData>
